--- a/watches_under_2000.xlsx
+++ b/watches_under_2000.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Endurance Series Digital analog Sports watch Analog-Dig...</t>
+          <t>Analog Watch  - For Men PE000017D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Endurance</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1334</v>
+        <v>1209</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -530,16 +530,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Karishma Analog Watch  - For Men NN1639SM02</t>
+          <t>Endurance Series Digital analog Sports watch Analog-Dig...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Karishma</t>
+          <t>Endurance</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1695</v>
+        <v>1334</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,16 +550,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BL-1012-311 Analog-Digital Watch  - For Men BL-1012-311...</t>
+          <t>Karishma Analog Watch  - For Men NN1639SM02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BL-1012-311</t>
+          <t>Karishma</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1695</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000008C</t>
+          <t>Analog Watch  - For Men AS000010A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1019</v>
+        <v>839</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -610,16 +610,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Enticer ( MTP-V002L-7B2UDF ) Analog Watch  - For Men A1...</t>
+          <t>Analog Watch  - For Men PE000008C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enticer</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1219</v>
+        <v>1019</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -630,16 +630,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000017C</t>
+          <t>BL-1012-311 Analog-Digital Watch  - For Men BL-1012-311...</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>BL-1012-311</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1259</v>
+        <v>1299</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -650,16 +650,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men Elegance Collection</t>
+          <t>Carlington Iconic Series Premium Gents Wrist Watches An...</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>Carlington</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1432</v>
+        <v>999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -670,16 +670,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men 37980CAGI</t>
+          <t>Enticer ( MTP-V002L-7B2UDF ) Analog Watch  - For Men A1...</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>Enticer</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1969</v>
+        <v>1219</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -690,16 +690,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Premium Analog Watch  - For Men DK11599-44</t>
+          <t>Analog Watch  - For Men PE000017C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1539</v>
+        <v>1259</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -710,16 +710,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Blue Dial Stainless Steel Analog Watch  - For Men TWTG8...</t>
+          <t>Stunners 6.0 Analog Watch  - For Men 3278SM03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Stunners</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1339</v>
+        <v>1195</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000022A</t>
+          <t>Premium Analog Watch  - For Men DK11599-44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>Premium</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000010F</t>
+          <t>Analog Watch  - For Men Elegance Collection</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1159</v>
+        <v>1432</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000017A</t>
+          <t>Blue Dial Stainless Steel Analog Watch  - For Men TWTG8...</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1279</v>
+        <v>1339</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -790,16 +790,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023 Edition Analog Watch  - For Men PE000061A</t>
+          <t>Analog Watch  - For Men PE000022A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1379</v>
+        <v>1549</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men NT1773SL02</t>
+          <t>Analog Watch  - For Men AS000010F</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1479</v>
+        <v>1159</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000008H</t>
+          <t>Analog Watch  - For Men PE000017A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1089</v>
+        <v>1279</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -850,16 +850,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000017K</t>
+          <t>2023 Edition Analog Watch  - For Men PE000061A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1599</v>
+        <v>1379</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -870,16 +870,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Essential Gents collection Analog Watch  - For Men NT77...</t>
+          <t>Analog Watch  - For Men NT1773SL02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1345</v>
+        <v>1479</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000003A</t>
+          <t>Analog Watch  - For Men PE000008H</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>919</v>
+        <v>1089</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -910,16 +910,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Enticer ( MTP-V002D-7BUDF ) Analog Watch  - For Men A16...</t>
+          <t>Essential Gents collection Analog Watch  - For Men NT77...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Enticer</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1209</v>
+        <v>1345</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000026A</t>
+          <t>Analog Watch  - For Men AS000003A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1119</v>
+        <v>919</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000025E</t>
+          <t>Enticer ( MTP-V002D-7BUDF ) Analog Watch  - For Men A16...</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>Enticer</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1479</v>
+        <v>1209</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000022C</t>
+          <t>Analog Watch  - For Men AS000025E</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000024A</t>
+          <t>Analog Watch  - For Men AS000022C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>989</v>
+        <v>1489</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1010,16 +1010,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Monochrome Analog Watch  - For Men VH000035A</t>
+          <t>Analog Watch  - For Men PE000024A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Monochrome</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1619</v>
+        <v>989</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1030,16 +1030,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Essential Gents collection Analog Watch  - For Men NT77...</t>
+          <t>Monochrome Analog Watch  - For Men VH000035A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Monochrome</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1195</v>
+        <v>1619</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1070,16 +1070,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000017E</t>
+          <t>2023 Edition Analog Watch  - For Men PE000057A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1639</v>
+        <v>1279</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023 Edition Analog Watch  - For Men PE000057A</t>
+          <t>Analog Watch  - For Men AS000024B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000024B</t>
+          <t>2023 Edition Analog Watch  - For Men AS000010O</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1319</v>
+        <v>1179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1130,16 +1130,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023 Edition Analog Watch  - For Men AS000010O</t>
+          <t>Analog Watch  - For Men AS000040D</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Analog</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1179</v>
+        <v>1149</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men AS000040D</t>
+          <t>Analog Watch  - For Men PE000017F</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1149</v>
+        <v>1639</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000017F</t>
+          <t>Analog Watch  - For Men PE000008A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1639</v>
+        <v>709</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000008A</t>
+          <t>Analog Watch  - For Men PE000017H</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>709</v>
+        <v>1229</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1210,38 +1210,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Analog Watch  - For Men PE000017H</t>
+          <t>Essential Gents collection Analog Watch  - For Men NT77...</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Analog</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1229</v>
+        <v>1475</v>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>In Stock</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3. MAXIMA Analog Watch  - For ...4.12,985 Ratings&amp;373 Reviews₹1,96935% off</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1969</v>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
